--- a/va_facility_data_2025-02-20/Plymouth VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Plymouth%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Plymouth VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Plymouth%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Rb8d25c83f4d941c19af46fe158098f1e"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R3ea92aa13acc4d3d9849f2dc416beaa1"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R41161929617446aeb83da72c3f62e326"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R396c8a66f37e4775989518a57c00cf91"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R9758376ed2574f68ad91451f48867e49"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rdf6846586c8f47f498a14ff5c197178f"/>
   </x:sheets>
 </x:workbook>
 </file>
